--- a/venda-geral-to-be.xlsx
+++ b/venda-geral-to-be.xlsx
@@ -531,10 +531,10 @@
     <t xml:space="preserve">Disponibiliza e gerencia a venda de cupons e produtos para os consumidores</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema de Registro e Acompanhamento de Negociação de Contratos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerencia os contratos com parceiros e acompanha desde o processo de negociação até a finalização de um contrato</t>
+    <t xml:space="preserve">ERP – Módulo Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de planejamento de recursos da empresa – Módulo de contratos</t>
   </si>
   <si>
     <t xml:space="preserve">Google Ads</t>
@@ -1261,7 +1261,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.09"/>
@@ -1481,7 +1481,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="62.57"/>
@@ -1865,14 +1865,14 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="O45" activeCellId="0" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.09"/>

--- a/venda-geral-to-be.xlsx
+++ b/venda-geral-to-be.xlsx
@@ -649,7 +649,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,7 +659,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -728,12 +728,6 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
@@ -790,7 +784,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -983,7 +977,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,11 +989,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1032,7 +1030,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1261,7 +1259,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.09"/>
@@ -1481,7 +1479,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="62.57"/>
@@ -1869,10 +1867,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="O45" activeCellId="0" sqref="O45"/>
+      <selection pane="bottomRight" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.09"/>
@@ -3159,6 +3157,9 @@
       <c r="V43" s="52"/>
       <c r="W43" s="52"/>
       <c r="X43" s="41"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="53"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
